--- a/Data/Output.xlsx
+++ b/Data/Output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uipath.dev01\Documents\UiPath\Prototype-Generic_Batch\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E60C81-F7A2-4D0B-A982-BB8C7C13587B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6B8315-2CE1-4605-8E0D-136E8B01AFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12600" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,13 +82,13 @@
     <x:t>Z108</x:t>
   </x:si>
   <x:si>
-    <x:t>Document 4908211557 posted</x:t>
+    <x:t>Document 4908211610 posted</x:t>
   </x:si>
   <x:si>
     <x:t>M1503</x:t>
   </x:si>
   <x:si>
-    <x:t>Document 4908211558 posted</x:t>
+    <x:t>Document 4908211611 posted</x:t>
   </x:si>
   <x:si>
     <x:t>74321</x:t>
@@ -100,7 +100,7 @@
     <x:t>M1501</x:t>
   </x:si>
   <x:si>
-    <x:t>Document 4908211559 posted</x:t>
+    <x:t>Document 4908211612 posted</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -430,15 +430,15 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:K1"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="C12" sqref="C12"/>
+      <x:selection activeCell="A2" sqref="A2 2:4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
-    <x:row r="1" spans="1:11">
+    <x:row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
